--- a/sheet3.xlsx
+++ b/sheet3.xlsx
@@ -99,6 +99,9 @@
     <t xml:space="preserve">Maria Kowalska</t>
   </si>
   <si>
+    <t xml:space="preserve">Baltazar Gąbka</t>
+  </si>
+  <si>
     <t xml:space="preserve">Przedmiot 5</t>
   </si>
   <si>
@@ -106,9 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve">Przedmiot 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baltazar Gąbka</t>
   </si>
   <si>
     <t xml:space="preserve">ZALICZENIA/EGZAMINY POPRAWKOWE</t>
@@ -303,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,10 +324,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,10 +404,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,10 +428,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,19 +440,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,30 +464,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,14 +478,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -628,20 +576,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
@@ -671,288 +619,288 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>44261</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16" t="n">
+      <c r="A4" s="5"/>
+      <c r="B4" s="15" t="n">
         <v>44262</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="6" t="n">
         <v>44275</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35" t="n">
+      <c r="G7" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="42" t="n">
+      <c r="G9" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="44" t="n">
+      <c r="A10" s="24"/>
+      <c r="B10" s="39" t="n">
         <v>44276</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="46" t="s">
+      <c r="F11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="G11" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="47"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51" t="n">
+      <c r="A12" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="52" t="n">
+      <c r="B12" s="41" t="n">
         <v>44359</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I16"/>
